--- a/output/5Y_P9_KFSDIV.xlsx
+++ b/output/5Y_P9_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-34</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-32</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-29</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.486</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.1958</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4264</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>17.107</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.8894</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4004</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3877</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6367</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.0061</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.835</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.4216</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2404</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.382</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.9583</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2036</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9136</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.4338</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9657</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3568</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2487</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3991</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.5985</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.6955</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3398</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-34</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-32</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-29</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -5303,7 +5306,7 @@
         <v>214783.9233</v>
       </c>
       <c r="K19" s="1">
-        <v>154100.4396</v>
+        <v>154100.9587</v>
       </c>
       <c r="L19" s="1">
         <v>11.819</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -5356,7 +5359,7 @@
         <v>221592.9545</v>
       </c>
       <c r="K20" s="1">
-        <v>154423.3186</v>
+        <v>154423.8378</v>
       </c>
       <c r="L20" s="1">
         <v>11.8226</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -5409,10 +5412,10 @@
         <v>232026.5559</v>
       </c>
       <c r="K21" s="1">
-        <v>167665.9057</v>
+        <v>167666.4249</v>
       </c>
       <c r="L21" s="1">
-        <v>11.9453</v>
+        <v>11.9454</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -5462,7 +5465,7 @@
         <v>263030.1248</v>
       </c>
       <c r="K22" s="1">
-        <v>183118.9691</v>
+        <v>183119.4882</v>
       </c>
       <c r="L22" s="1">
         <v>12.0423</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -5515,10 +5518,10 @@
         <v>264311.0015</v>
       </c>
       <c r="K23" s="1">
-        <v>172009.2372</v>
+        <v>172054.1313</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9077</v>
+        <v>11.9108</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -5568,10 +5571,10 @@
         <v>254010.8741</v>
       </c>
       <c r="K24" s="1">
-        <v>190803.4568</v>
+        <v>190848.351</v>
       </c>
       <c r="L24" s="1">
-        <v>12.0849</v>
+        <v>12.0877</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -5621,10 +5624,10 @@
         <v>266571.0212</v>
       </c>
       <c r="K25" s="1">
-        <v>227676.1331</v>
+        <v>227721.0272</v>
       </c>
       <c r="L25" s="1">
-        <v>12.1177</v>
+        <v>12.1201</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -5674,10 +5677,10 @@
         <v>276295.6637</v>
       </c>
       <c r="K26" s="1">
-        <v>234997.9446</v>
+        <v>235042.8387</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1274</v>
+        <v>12.1297</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -5727,10 +5730,10 @@
         <v>305131.8246</v>
       </c>
       <c r="K27" s="1">
-        <v>245285.1133</v>
+        <v>245330.0074</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1395</v>
+        <v>12.1417</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -5780,10 +5783,10 @@
         <v>324228.947</v>
       </c>
       <c r="K28" s="1">
-        <v>245127.1201</v>
+        <v>245172.6461</v>
       </c>
       <c r="L28" s="1">
-        <v>12.139</v>
+        <v>12.1412</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -5833,10 +5836,10 @@
         <v>344894.8405</v>
       </c>
       <c r="K29" s="1">
-        <v>246033.6224</v>
+        <v>246079.1484</v>
       </c>
       <c r="L29" s="1">
-        <v>12.1431</v>
+        <v>12.1454</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -5886,10 +5889,10 @@
         <v>379070.9001</v>
       </c>
       <c r="K30" s="1">
-        <v>245361.417</v>
+        <v>245409.6302</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1389</v>
+        <v>12.1413</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -5939,10 +5942,10 @@
         <v>403678.5753</v>
       </c>
       <c r="K31" s="1">
-        <v>240282.5998</v>
+        <v>240351.0852</v>
       </c>
       <c r="L31" s="1">
-        <v>12.095</v>
+        <v>12.0984</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -5992,10 +5995,10 @@
         <v>384535.3604</v>
       </c>
       <c r="K32" s="1">
-        <v>235656.4433</v>
+        <v>235743.41</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0443</v>
+        <v>12.0488</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -6045,10 +6048,10 @@
         <v>408861.9785</v>
       </c>
       <c r="K33" s="1">
-        <v>274956.5885</v>
+        <v>275043.5552</v>
       </c>
       <c r="L33" s="1">
-        <v>12.2785</v>
+        <v>12.2824</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -6098,10 +6101,10 @@
         <v>420388.2508</v>
       </c>
       <c r="K34" s="1">
-        <v>279294.9553</v>
+        <v>279381.922</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3038</v>
+        <v>12.3076</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -6151,10 +6154,10 @@
         <v>428593.0991</v>
       </c>
       <c r="K35" s="1">
-        <v>287785.2737</v>
+        <v>287872.2404</v>
       </c>
       <c r="L35" s="1">
-        <v>12.353</v>
+        <v>12.3567</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -6204,10 +6207,10 @@
         <v>478252.9094</v>
       </c>
       <c r="K36" s="1">
-        <v>299593.68</v>
+        <v>299680.6467</v>
       </c>
       <c r="L36" s="1">
-        <v>12.415</v>
+        <v>12.4186</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -6257,10 +6260,10 @@
         <v>488998.6415</v>
       </c>
       <c r="K37" s="1">
-        <v>280293.1494</v>
+        <v>280457.2589</v>
       </c>
       <c r="L37" s="1">
-        <v>12.2531</v>
+        <v>12.2603</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -6310,10 +6313,10 @@
         <v>482113.1568</v>
       </c>
       <c r="K38" s="1">
-        <v>289584.5357</v>
+        <v>289748.6453</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3339</v>
+        <v>12.3409</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.486</v>
@@ -6363,10 +6366,10 @@
         <v>534391.5177</v>
       </c>
       <c r="K39" s="1">
-        <v>316540.5497</v>
+        <v>316704.6592</v>
       </c>
       <c r="L39" s="1">
-        <v>12.5037</v>
+        <v>12.5102</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.1958</v>
@@ -6416,10 +6419,10 @@
         <v>561809.3112999999</v>
       </c>
       <c r="K40" s="1">
-        <v>305240.2837</v>
+        <v>305449.5448</v>
       </c>
       <c r="L40" s="1">
-        <v>12.4144</v>
+        <v>12.423</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4264</v>
@@ -6469,10 +6472,10 @@
         <v>577363.7119</v>
       </c>
       <c r="K41" s="1">
-        <v>297792.7517</v>
+        <v>298031.7512</v>
       </c>
       <c r="L41" s="1">
-        <v>12.3419</v>
+        <v>12.3518</v>
       </c>
       <c r="M41" s="1">
         <v>0.75</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>17.107</v>
@@ -6522,10 +6525,10 @@
         <v>620205.0125</v>
       </c>
       <c r="K42" s="1">
-        <v>302256.1675</v>
+        <v>302495.1669</v>
       </c>
       <c r="L42" s="1">
-        <v>12.3877</v>
+        <v>12.3975</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.8894</v>
@@ -6575,10 +6578,10 @@
         <v>624988.9963999999</v>
       </c>
       <c r="K43" s="1">
-        <v>295657.4769</v>
+        <v>295922.846</v>
       </c>
       <c r="L43" s="1">
-        <v>12.3115</v>
+        <v>12.3225</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4004</v>
@@ -6628,10 +6631,10 @@
         <v>644381.5414</v>
       </c>
       <c r="K44" s="1">
-        <v>310934.5175</v>
+        <v>311199.8865</v>
       </c>
       <c r="L44" s="1">
-        <v>12.4785</v>
+        <v>12.4892</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3877</v>
@@ -6681,10 +6684,10 @@
         <v>627740.0732</v>
       </c>
       <c r="K45" s="1">
-        <v>333183.2243</v>
+        <v>333448.5934</v>
       </c>
       <c r="L45" s="1">
-        <v>12.6823</v>
+        <v>12.6924</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6367</v>
@@ -6734,10 +6737,10 @@
         <v>616119.0666</v>
       </c>
       <c r="K46" s="1">
-        <v>369882.3631</v>
+        <v>370147.7322</v>
       </c>
       <c r="L46" s="1">
-        <v>12.9097</v>
+        <v>12.9189</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.0061</v>
@@ -6787,10 +6790,10 @@
         <v>575861.704</v>
       </c>
       <c r="K47" s="1">
-        <v>401483.014</v>
+        <v>401748.383</v>
       </c>
       <c r="L47" s="1">
-        <v>13.0325</v>
+        <v>13.0411</v>
       </c>
       <c r="M47" s="1">
         <v>0.5</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.835</v>
@@ -6840,10 +6843,10 @@
         <v>628798.2126</v>
       </c>
       <c r="K48" s="1">
-        <v>461855.4683</v>
+        <v>462120.8374</v>
       </c>
       <c r="L48" s="1">
-        <v>13.0325</v>
+        <v>13.0399</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.4216</v>
@@ -6893,10 +6896,10 @@
         <v>658728.6118</v>
       </c>
       <c r="K49" s="1">
-        <v>442462.9409</v>
+        <v>442805.809</v>
       </c>
       <c r="L49" s="1">
-        <v>12.9983</v>
+        <v>13.0084</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2404</v>
@@ -6946,10 +6949,10 @@
         <v>629412.2868999999</v>
       </c>
       <c r="K50" s="1">
-        <v>432492.7313</v>
+        <v>432875.4099</v>
       </c>
       <c r="L50" s="1">
-        <v>12.9683</v>
+        <v>12.9798</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.382</v>
@@ -6999,10 +7002,10 @@
         <v>619452.1963</v>
       </c>
       <c r="K51" s="1">
-        <v>482006.8603</v>
+        <v>482389.5389</v>
       </c>
       <c r="L51" s="1">
-        <v>12.9983</v>
+        <v>13.0087</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.9583</v>
@@ -7052,10 +7055,10 @@
         <v>612177.1091</v>
       </c>
       <c r="K52" s="1">
-        <v>523942.8016</v>
+        <v>524325.4802</v>
       </c>
       <c r="L52" s="1">
-        <v>12.9489</v>
+        <v>12.9584</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2036</v>
@@ -7105,10 +7108,10 @@
         <v>632529.4983</v>
       </c>
       <c r="K53" s="1">
-        <v>551159.0355</v>
+        <v>551541.7141</v>
       </c>
       <c r="L53" s="1">
-        <v>12.8976</v>
+        <v>12.9065</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9136</v>
@@ -7158,10 +7161,10 @@
         <v>688167.802</v>
       </c>
       <c r="K54" s="1">
-        <v>550695.996</v>
+        <v>551080.5263</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8981</v>
+        <v>12.9072</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.4338</v>
@@ -7211,10 +7214,10 @@
         <v>719515.3554999999</v>
       </c>
       <c r="K55" s="1">
-        <v>530360.5415000001</v>
+        <v>530826.3223999999</v>
       </c>
       <c r="L55" s="1">
-        <v>12.8966</v>
+        <v>12.9079</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9657</v>
@@ -7264,10 +7267,10 @@
         <v>710701.6102999999</v>
       </c>
       <c r="K56" s="1">
-        <v>518967.4518</v>
+        <v>519478.7689</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8847</v>
+        <v>12.8974</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3568</v>
@@ -7317,10 +7320,10 @@
         <v>748050.5535</v>
       </c>
       <c r="K57" s="1">
-        <v>547896.7655</v>
+        <v>548408.0826</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8903</v>
+        <v>12.9023</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2487</v>
@@ -7370,10 +7373,10 @@
         <v>753517.6543000001</v>
       </c>
       <c r="K58" s="1">
-        <v>541280.8041</v>
+        <v>541818.5681</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8845</v>
+        <v>12.8973</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3991</v>
@@ -7423,10 +7426,10 @@
         <v>769930.1088</v>
       </c>
       <c r="K59" s="1">
-        <v>555871.9571999999</v>
+        <v>556409.7211</v>
       </c>
       <c r="L59" s="1">
-        <v>12.8945</v>
+        <v>12.9069</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.5985</v>
@@ -7476,10 +7479,10 @@
         <v>804066.5913</v>
       </c>
       <c r="K60" s="1">
-        <v>559415.3952</v>
+        <v>559953.1592</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8977</v>
+        <v>12.9101</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.6955</v>
@@ -7529,10 +7532,10 @@
         <v>818269.3973</v>
       </c>
       <c r="K61" s="1">
-        <v>560789.6066000001</v>
+        <v>561327.3706</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8994</v>
+        <v>12.9118</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3398</v>
@@ -7582,10 +7585,10 @@
         <v>812662.4449999999</v>
       </c>
       <c r="K62" s="1">
-        <v>566604.535</v>
+        <v>567142.299</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9073</v>
+        <v>12.9196</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-34</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-32</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-29</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -8827,10 +8830,10 @@
         <v>265790.129</v>
       </c>
       <c r="K23" s="1">
-        <v>181675.4482</v>
+        <v>181719.7522</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9595</v>
+        <v>11.9624</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -8880,10 +8883,10 @@
         <v>254368.3286</v>
       </c>
       <c r="K24" s="1">
-        <v>202030.1812</v>
+        <v>202074.4852</v>
       </c>
       <c r="L24" s="1">
-        <v>12.137</v>
+        <v>12.1397</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -8933,10 +8936,10 @@
         <v>267072.2587</v>
       </c>
       <c r="K25" s="1">
-        <v>241524.0329</v>
+        <v>241568.337</v>
       </c>
       <c r="L25" s="1">
-        <v>12.1618</v>
+        <v>12.1641</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -8986,10 +8989,10 @@
         <v>276777.9595</v>
       </c>
       <c r="K26" s="1">
-        <v>249911.3686</v>
+        <v>249955.6727</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1708</v>
+        <v>12.173</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -9039,10 +9042,10 @@
         <v>306762.6932</v>
       </c>
       <c r="K27" s="1">
-        <v>261489.9747</v>
+        <v>261534.2788</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1817</v>
+        <v>12.1838</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -9092,10 +9095,10 @@
         <v>326449.6403</v>
       </c>
       <c r="K28" s="1">
-        <v>262029.2662</v>
+        <v>262073.5702</v>
       </c>
       <c r="L28" s="1">
-        <v>12.1832</v>
+        <v>12.1852</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -9145,10 +9148,10 @@
         <v>347835.6542</v>
       </c>
       <c r="K29" s="1">
-        <v>263731.5647</v>
+        <v>263775.8688</v>
       </c>
       <c r="L29" s="1">
-        <v>12.1902</v>
+        <v>12.1923</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -9198,10 +9201,10 @@
         <v>383691.5163</v>
       </c>
       <c r="K30" s="1">
-        <v>263780.4579</v>
+        <v>263824.762</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1905</v>
+        <v>12.1926</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -9251,10 +9254,10 @@
         <v>409369.2766</v>
       </c>
       <c r="K31" s="1">
-        <v>259140.2093</v>
+        <v>259203.035</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1539</v>
+        <v>12.1568</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -9304,10 +9307,10 @@
         <v>388011.1613</v>
       </c>
       <c r="K32" s="1">
-        <v>255002.1373</v>
+        <v>255081.4944</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1125</v>
+        <v>12.1163</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -9357,10 +9360,10 @@
         <v>413438.831</v>
       </c>
       <c r="K33" s="1">
-        <v>298146.5343</v>
+        <v>298225.8914</v>
       </c>
       <c r="L33" s="1">
-        <v>12.3421</v>
+        <v>12.3454</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -9410,10 +9413,10 @@
         <v>425086.027</v>
       </c>
       <c r="K34" s="1">
-        <v>303714.633</v>
+        <v>303793.9901</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3711</v>
+        <v>12.3743</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -9463,10 +9466,10 @@
         <v>433135.9807</v>
       </c>
       <c r="K35" s="1">
-        <v>313815.9841</v>
+        <v>313895.3412</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4231</v>
+        <v>12.4263</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -9516,10 +9519,10 @@
         <v>486216.3617</v>
       </c>
       <c r="K36" s="1">
-        <v>327569.7038</v>
+        <v>327649.0609</v>
       </c>
       <c r="L36" s="1">
-        <v>12.487</v>
+        <v>12.49</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -9569,10 +9572,10 @@
         <v>497029.1112</v>
       </c>
       <c r="K37" s="1">
-        <v>307569.7583</v>
+        <v>307729.0538</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3369</v>
+        <v>12.3432</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -9622,10 +9625,10 @@
         <v>488574.9142</v>
       </c>
       <c r="K38" s="1">
-        <v>318708.7773</v>
+        <v>318868.0728</v>
       </c>
       <c r="L38" s="1">
-        <v>12.4231</v>
+        <v>12.4293</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.486</v>
@@ -9675,10 +9678,10 @@
         <v>544826.7733</v>
       </c>
       <c r="K39" s="1">
-        <v>349207.0736</v>
+        <v>349366.369</v>
       </c>
       <c r="L39" s="1">
-        <v>12.5918</v>
+        <v>12.5975</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.1958</v>
@@ -9728,10 +9731,10 @@
         <v>573956.7587</v>
       </c>
       <c r="K40" s="1">
-        <v>337903.9826</v>
+        <v>338108.4408</v>
       </c>
       <c r="L40" s="1">
-        <v>12.5129</v>
+        <v>12.5204</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4264</v>
@@ -9781,10 +9784,10 @@
         <v>590072.884</v>
       </c>
       <c r="K41" s="1">
-        <v>330832.533</v>
+        <v>331065.2279</v>
       </c>
       <c r="L41" s="1">
-        <v>12.4519</v>
+        <v>12.4607</v>
       </c>
       <c r="M41" s="1">
         <v>0.75</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>17.107</v>
@@ -9834,10 +9837,10 @@
         <v>636277.9816000001</v>
       </c>
       <c r="K42" s="1">
-        <v>336887.7846</v>
+        <v>337120.4795</v>
       </c>
       <c r="L42" s="1">
-        <v>12.5067</v>
+        <v>12.5153</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.8894</v>
@@ -9887,10 +9890,10 @@
         <v>640504.7879</v>
       </c>
       <c r="K43" s="1">
-        <v>330775.9381</v>
+        <v>331033.0572</v>
       </c>
       <c r="L43" s="1">
-        <v>12.4445</v>
+        <v>12.4542</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4004</v>
@@ -9940,10 +9943,10 @@
         <v>660861.0691</v>
       </c>
       <c r="K44" s="1">
-        <v>348890.4727</v>
+        <v>349147.5918</v>
       </c>
       <c r="L44" s="1">
-        <v>12.6179</v>
+        <v>12.6272</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3877</v>
@@ -9993,10 +9996,10 @@
         <v>641216.4554</v>
       </c>
       <c r="K45" s="1">
-        <v>374817.8903</v>
+        <v>375075.0093</v>
       </c>
       <c r="L45" s="1">
-        <v>12.8238</v>
+        <v>12.8326</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6367</v>
@@ -10046,10 +10049,10 @@
         <v>627095.1515</v>
       </c>
       <c r="K46" s="1">
-        <v>416919.0278</v>
+        <v>417176.1469</v>
       </c>
       <c r="L46" s="1">
-        <v>13.0455</v>
+        <v>13.0536</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.0061</v>
@@ -10099,10 +10102,10 @@
         <v>580886.7519</v>
       </c>
       <c r="K47" s="1">
-        <v>453472.1206</v>
+        <v>453729.2397</v>
       </c>
       <c r="L47" s="1">
-        <v>13.1628</v>
+        <v>13.1702</v>
       </c>
       <c r="M47" s="1">
         <v>0.5</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.835</v>
@@ -10152,10 +10155,10 @@
         <v>638982.8863</v>
       </c>
       <c r="K48" s="1">
-        <v>522325.9386</v>
+        <v>522583.0577</v>
       </c>
       <c r="L48" s="1">
-        <v>13.1454</v>
+        <v>13.1519</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.4216</v>
@@ -10205,10 +10208,10 @@
         <v>671387.0567</v>
       </c>
       <c r="K49" s="1">
-        <v>501954.9359</v>
+        <v>502293.4643</v>
       </c>
       <c r="L49" s="1">
-        <v>13.1179</v>
+        <v>13.1267</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2404</v>
@@ -10258,10 +10261,10 @@
         <v>637076.0578</v>
       </c>
       <c r="K50" s="1">
-        <v>492153.3114</v>
+        <v>492530.9771</v>
       </c>
       <c r="L50" s="1">
-        <v>13.0938</v>
+        <v>13.1039</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.382</v>
@@ -10311,10 +10314,10 @@
         <v>624481.5161</v>
       </c>
       <c r="K51" s="1">
-        <v>549397.8884000001</v>
+        <v>549775.5542</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1116</v>
+        <v>13.1206</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.9583</v>
@@ -10364,10 +10367,10 @@
         <v>614905.1106</v>
       </c>
       <c r="K52" s="1">
-        <v>598258.7195</v>
+        <v>598636.3852</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0511</v>
+        <v>13.0593</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2036</v>
@@ -10417,10 +10420,10 @@
         <v>636658.1671</v>
       </c>
       <c r="K53" s="1">
-        <v>630601.3386</v>
+        <v>630979.0043</v>
       </c>
       <c r="L53" s="1">
-        <v>12.9916</v>
+        <v>12.9994</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9136</v>
@@ -10470,10 +10473,10 @@
         <v>698581.875</v>
       </c>
       <c r="K54" s="1">
-        <v>631619.4814</v>
+        <v>631997.1470999999</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9903</v>
+        <v>12.9981</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.4338</v>
@@ -10523,10 +10526,10 @@
         <v>732955.9963999999</v>
       </c>
       <c r="K55" s="1">
-        <v>610040.4253999999</v>
+        <v>610504.3107</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9921</v>
+        <v>13.002</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9657</v>
@@ -10576,10 +10579,10 @@
         <v>721418.8949</v>
       </c>
       <c r="K56" s="1">
-        <v>598646.4705000001</v>
+        <v>599155.8953</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9835</v>
+        <v>12.9946</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3568</v>
@@ -10629,10 +10632,10 @@
         <v>762769.67</v>
       </c>
       <c r="K57" s="1">
-        <v>633413.2951</v>
+        <v>633922.7199</v>
       </c>
       <c r="L57" s="1">
-        <v>12.984</v>
+        <v>12.9944</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2487</v>
@@ -10682,10 +10685,10 @@
         <v>767553.4844</v>
       </c>
       <c r="K58" s="1">
-        <v>627505.4958</v>
+        <v>628038.5367000001</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9803</v>
+        <v>12.9914</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3991</v>
@@ -10735,10 +10738,10 @@
         <v>784945.1403</v>
       </c>
       <c r="K59" s="1">
-        <v>646017.6596</v>
+        <v>646550.7005</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9886</v>
+        <v>12.9993</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.5985</v>
@@ -10788,10 +10791,10 @@
         <v>822811.5839</v>
       </c>
       <c r="K60" s="1">
-        <v>651863.6149</v>
+        <v>652396.6557999999</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9924</v>
+        <v>13.003</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.6955</v>
@@ -10841,10 +10844,10 @@
         <v>837678.83</v>
       </c>
       <c r="K61" s="1">
-        <v>655247.3802</v>
+        <v>655780.421</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9955</v>
+        <v>13.0061</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3398</v>
@@ -10894,10 +10897,10 @@
         <v>829523.2973</v>
       </c>
       <c r="K62" s="1">
-        <v>663822.2614</v>
+        <v>664355.3023</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0044</v>
+        <v>13.0149</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-34</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-32</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-29</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -12139,10 +12142,10 @@
         <v>267301.7047</v>
       </c>
       <c r="K23" s="1">
-        <v>192018.1593</v>
+        <v>192062.2321</v>
       </c>
       <c r="L23" s="1">
-        <v>12.012</v>
+        <v>12.0148</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -12192,10 +12195,10 @@
         <v>254679.1879</v>
       </c>
       <c r="K24" s="1">
-        <v>214079.0563</v>
+        <v>214123.1291</v>
       </c>
       <c r="L24" s="1">
-        <v>12.1896</v>
+        <v>12.1922</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -12245,10 +12248,10 @@
         <v>267537.2269</v>
       </c>
       <c r="K25" s="1">
-        <v>256423.2064</v>
+        <v>256467.2792</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2062</v>
+        <v>12.2083</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -12298,10 +12301,10 @@
         <v>277222.3435</v>
       </c>
       <c r="K26" s="1">
-        <v>266005.934</v>
+        <v>266050.0069</v>
       </c>
       <c r="L26" s="1">
-        <v>12.2143</v>
+        <v>12.2163</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -12351,10 +12354,10 @@
         <v>308445.6064</v>
       </c>
       <c r="K27" s="1">
-        <v>279031.8742</v>
+        <v>279075.9471</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2238</v>
+        <v>12.2258</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -12404,10 +12407,10 @@
         <v>328770.8918</v>
       </c>
       <c r="K28" s="1">
-        <v>280386.5567</v>
+        <v>280430.6295</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2271</v>
+        <v>12.229</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -12457,10 +12460,10 @@
         <v>350939.7741</v>
       </c>
       <c r="K29" s="1">
-        <v>283018.9426</v>
+        <v>283063.0154</v>
       </c>
       <c r="L29" s="1">
-        <v>12.2369</v>
+        <v>12.2388</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -12510,10 +12513,10 @@
         <v>388623.1195</v>
       </c>
       <c r="K30" s="1">
-        <v>283925.2461</v>
+        <v>283969.319</v>
       </c>
       <c r="L30" s="1">
-        <v>12.2416</v>
+        <v>12.2435</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -12563,10 +12566,10 @@
         <v>415472.5126</v>
       </c>
       <c r="K31" s="1">
-        <v>279842.6656</v>
+        <v>279903.0341</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2122</v>
+        <v>12.2148</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -12616,10 +12619,10 @@
         <v>391681.0603</v>
       </c>
       <c r="K32" s="1">
-        <v>276324.2554</v>
+        <v>276398.6798</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1802</v>
+        <v>12.1834</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -12669,10 +12672,10 @@
         <v>418319.6755</v>
       </c>
       <c r="K33" s="1">
-        <v>323783.7082</v>
+        <v>323858.1326</v>
       </c>
       <c r="L33" s="1">
-        <v>12.405</v>
+        <v>12.4079</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -12722,10 +12725,10 @@
         <v>430100.2531</v>
       </c>
       <c r="K34" s="1">
-        <v>330805.7854</v>
+        <v>330880.2098</v>
       </c>
       <c r="L34" s="1">
-        <v>12.4376</v>
+        <v>12.4404</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -12775,10 +12778,10 @@
         <v>437977.8946</v>
       </c>
       <c r="K35" s="1">
-        <v>342794.464</v>
+        <v>342868.8884</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4924</v>
+        <v>12.4951</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -12828,10 +12831,10 @@
         <v>494863.9179</v>
       </c>
       <c r="K36" s="1">
-        <v>358819.849</v>
+        <v>358894.2734</v>
       </c>
       <c r="L36" s="1">
-        <v>12.558</v>
+        <v>12.5606</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -12881,10 +12884,10 @@
         <v>505751.5581</v>
       </c>
       <c r="K37" s="1">
-        <v>338161.0962</v>
+        <v>338318.0921</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4195</v>
+        <v>12.4253</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -12934,10 +12937,10 @@
         <v>495537.8817</v>
       </c>
       <c r="K38" s="1">
-        <v>351492.7426</v>
+        <v>351649.7385</v>
       </c>
       <c r="L38" s="1">
-        <v>12.5112</v>
+        <v>12.5168</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.486</v>
@@ -12987,10 +12990,10 @@
         <v>556252.4639</v>
       </c>
       <c r="K39" s="1">
-        <v>386099.0466</v>
+        <v>386256.0425</v>
       </c>
       <c r="L39" s="1">
-        <v>12.6787</v>
+        <v>12.6839</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.1958</v>
@@ -13040,10 +13043,10 @@
         <v>587315.4916</v>
       </c>
       <c r="K40" s="1">
-        <v>374937.2363</v>
+        <v>375138.8306</v>
       </c>
       <c r="L40" s="1">
-        <v>12.61</v>
+        <v>12.6168</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4264</v>
@@ -13093,10 +13096,10 @@
         <v>604067.9695</v>
       </c>
       <c r="K41" s="1">
-        <v>368443.5513</v>
+        <v>368671.0752</v>
       </c>
       <c r="L41" s="1">
-        <v>12.5607</v>
+        <v>12.5684</v>
       </c>
       <c r="M41" s="1">
         <v>0.75</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>17.107</v>
@@ -13146,10 +13149,10 @@
         <v>654089.8075</v>
       </c>
       <c r="K42" s="1">
-        <v>376464.3147</v>
+        <v>376691.8386</v>
       </c>
       <c r="L42" s="1">
-        <v>12.6244</v>
+        <v>12.632</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.8894</v>
@@ -13199,10 +13202,10 @@
         <v>657681.0746000001</v>
       </c>
       <c r="K43" s="1">
-        <v>371077.4082</v>
+        <v>371326.4592</v>
       </c>
       <c r="L43" s="1">
-        <v>12.5763</v>
+        <v>12.5847</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4004</v>
@@ -13252,10 +13255,10 @@
         <v>679130.6842</v>
       </c>
       <c r="K44" s="1">
-        <v>392609.6758</v>
+        <v>392858.7268</v>
       </c>
       <c r="L44" s="1">
-        <v>12.756</v>
+        <v>12.7641</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3877</v>
@@ -13305,10 +13308,10 @@
         <v>656036.2776</v>
       </c>
       <c r="K45" s="1">
-        <v>422938.7322</v>
+        <v>423187.7832</v>
       </c>
       <c r="L45" s="1">
-        <v>12.964</v>
+        <v>12.9716</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6367</v>
@@ -13358,10 +13361,10 @@
         <v>639032.8071</v>
       </c>
       <c r="K46" s="1">
-        <v>471445.4558</v>
+        <v>471694.5068</v>
       </c>
       <c r="L46" s="1">
-        <v>13.1799</v>
+        <v>13.1868</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.0061</v>
@@ -13411,10 +13414,10 @@
         <v>585941.8069</v>
       </c>
       <c r="K47" s="1">
-        <v>513918.0129</v>
+        <v>514167.0639</v>
       </c>
       <c r="L47" s="1">
-        <v>13.2912</v>
+        <v>13.2976</v>
       </c>
       <c r="M47" s="1">
         <v>0.5</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.835</v>
@@ -13464,10 +13467,10 @@
         <v>650017.8427</v>
       </c>
       <c r="K48" s="1">
-        <v>592802.7804</v>
+        <v>593051.8314</v>
       </c>
       <c r="L48" s="1">
-        <v>13.2561</v>
+        <v>13.2617</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.4216</v>
@@ -13517,10 +13520,10 @@
         <v>685302.4564</v>
       </c>
       <c r="K49" s="1">
-        <v>571530.6894</v>
+        <v>571864.7508</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2346</v>
+        <v>13.2423</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2404</v>
@@ -13570,10 +13573,10 @@
         <v>645155.6244</v>
       </c>
       <c r="K50" s="1">
-        <v>562171.3388</v>
+        <v>562542.7716</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2161</v>
+        <v>13.2248</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.382</v>
@@ -13623,10 +13626,10 @@
         <v>629465.2714</v>
       </c>
       <c r="K51" s="1">
-        <v>628706.2321</v>
+        <v>629077.6649</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2214</v>
+        <v>13.2292</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.9583</v>
@@ -13676,10 +13679,10 @@
         <v>617385.8373</v>
       </c>
       <c r="K52" s="1">
-        <v>680561.0261</v>
+        <v>680932.4588</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1556</v>
+        <v>13.1628</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2036</v>
@@ -13729,10 +13732,10 @@
         <v>640214.0634</v>
       </c>
       <c r="K53" s="1">
-        <v>690561.0261</v>
+        <v>690932.4588</v>
       </c>
       <c r="L53" s="1">
-        <v>13.137</v>
+        <v>13.144</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9136</v>
@@ -13782,10 +13785,10 @@
         <v>706925.7823</v>
       </c>
       <c r="K54" s="1">
-        <v>700561.0261</v>
+        <v>700932.4588</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1231</v>
+        <v>13.13</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.4338</v>
@@ -13835,10 +13838,10 @@
         <v>744871.826</v>
       </c>
       <c r="K55" s="1">
-        <v>707050.8106</v>
+        <v>707422.2433</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1214</v>
+        <v>13.1282</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9657</v>
@@ -13888,10 +13891,10 @@
         <v>730086.094</v>
       </c>
       <c r="K56" s="1">
-        <v>695979.2439999999</v>
+        <v>696394.9277999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1161</v>
+        <v>13.1239</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3568</v>
@@ -13941,10 +13944,10 @@
         <v>776219.3587</v>
       </c>
       <c r="K57" s="1">
-        <v>738047.1359</v>
+        <v>738462.8197</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1089</v>
+        <v>13.1163</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2487</v>
@@ -13994,10 +13997,10 @@
         <v>780182.4288</v>
       </c>
       <c r="K58" s="1">
-        <v>733339.2549000001</v>
+        <v>733773.7582</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1072</v>
+        <v>13.115</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3991</v>
@@ -14047,10 +14050,10 @@
         <v>798752.96</v>
       </c>
       <c r="K59" s="1">
-        <v>756928.4608</v>
+        <v>757362.964</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1124</v>
+        <v>13.1199</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.5985</v>
@@ -14100,10 +14103,10 @@
         <v>841119.4399999999</v>
       </c>
       <c r="K60" s="1">
-        <v>765932.3772</v>
+        <v>766366.8804</v>
       </c>
       <c r="L60" s="1">
-        <v>13.116</v>
+        <v>13.1234</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.6955</v>
@@ -14153,10 +14156,10 @@
         <v>856791.5909</v>
       </c>
       <c r="K61" s="1">
-        <v>772145.2084999999</v>
+        <v>772579.7118</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1199</v>
+        <v>13.1273</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3398</v>
@@ -14206,10 +14209,10 @@
         <v>845530.3455000001</v>
       </c>
       <c r="K62" s="1">
-        <v>784484.6245</v>
+        <v>784919.1278</v>
       </c>
       <c r="L62" s="1">
-        <v>13.129</v>
+        <v>13.1363</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-34</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-32</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-29</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -15451,10 +15454,10 @@
         <v>268875.7602</v>
       </c>
       <c r="K23" s="1">
-        <v>203061.8053</v>
+        <v>203105.4644</v>
       </c>
       <c r="L23" s="1">
-        <v>12.0637</v>
+        <v>12.0663</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -15504,10 +15507,10 @@
         <v>254967.5399</v>
       </c>
       <c r="K24" s="1">
-        <v>226988.0575</v>
+        <v>227031.7167</v>
       </c>
       <c r="L24" s="1">
-        <v>12.2414</v>
+        <v>12.2437</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -15557,10 +15560,10 @@
         <v>267933.1028</v>
       </c>
       <c r="K25" s="1">
-        <v>264967.0218</v>
+        <v>265010.681</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2484</v>
+        <v>12.2504</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -15610,10 +15613,10 @@
         <v>277608.186</v>
       </c>
       <c r="K26" s="1">
-        <v>274967.0218</v>
+        <v>275010.681</v>
       </c>
       <c r="L26" s="1">
-        <v>12.2551</v>
+        <v>12.257</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -15663,10 +15666,10 @@
         <v>309348.6351</v>
       </c>
       <c r="K27" s="1">
-        <v>284967.0218</v>
+        <v>285010.681</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2609</v>
+        <v>12.2628</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -15716,10 +15719,10 @@
         <v>330311.2413</v>
       </c>
       <c r="K28" s="1">
-        <v>300918.5095</v>
+        <v>300962.1687</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2945</v>
+        <v>12.2963</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -15769,10 +15772,10 @@
         <v>353331.6421</v>
       </c>
       <c r="K29" s="1">
-        <v>304634.0608</v>
+        <v>304677.72</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3066</v>
+        <v>12.3084</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -15822,10 +15825,10 @@
         <v>393007.4133</v>
       </c>
       <c r="K30" s="1">
-        <v>306554.4816</v>
+        <v>306598.1408</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3155</v>
+        <v>12.3173</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -15875,10 +15878,10 @@
         <v>421140.4247</v>
       </c>
       <c r="K31" s="1">
-        <v>303168.872</v>
+        <v>303226.0449</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2936</v>
+        <v>12.2959</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -15928,10 +15931,10 @@
         <v>394673.8294</v>
       </c>
       <c r="K32" s="1">
-        <v>300424.7028</v>
+        <v>300492.8386</v>
       </c>
       <c r="L32" s="1">
-        <v>12.271</v>
+        <v>12.2738</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -15981,10 +15984,10 @@
         <v>422645.1919</v>
       </c>
       <c r="K33" s="1">
-        <v>352730.9656</v>
+        <v>352799.1014</v>
       </c>
       <c r="L33" s="1">
-        <v>12.4879</v>
+        <v>12.4903</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -16034,10 +16037,10 @@
         <v>434573.0039</v>
       </c>
       <c r="K34" s="1">
-        <v>361467.978</v>
+        <v>361536.1137</v>
       </c>
       <c r="L34" s="1">
-        <v>12.5235</v>
+        <v>12.5259</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -16087,10 +16090,10 @@
         <v>442258.7833</v>
       </c>
       <c r="K35" s="1">
-        <v>375665.2335</v>
+        <v>375733.3693</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5803</v>
+        <v>12.5826</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -16140,10 +16143,10 @@
         <v>503382.79</v>
       </c>
       <c r="K36" s="1">
-        <v>394342.1412</v>
+        <v>394410.277</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6466</v>
+        <v>12.6488</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-6</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -16193,10 +16196,10 @@
         <v>514354.2039</v>
       </c>
       <c r="K37" s="1">
-        <v>373086.1531</v>
+        <v>373239.2475</v>
       </c>
       <c r="L37" s="1">
-        <v>12.5205</v>
+        <v>12.5257</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -16246,10 +16249,10 @@
         <v>502164.9258</v>
       </c>
       <c r="K38" s="1">
-        <v>389017.1958</v>
+        <v>389170.2902</v>
       </c>
       <c r="L38" s="1">
-        <v>12.617</v>
+        <v>12.6219</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.486</v>
@@ -16299,10 +16302,10 @@
         <v>567897.3387</v>
       </c>
       <c r="K39" s="1">
-        <v>428391.4653</v>
+        <v>428544.5597</v>
       </c>
       <c r="L39" s="1">
-        <v>12.7817</v>
+        <v>12.7862</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.1958</v>
@@ -16352,10 +16355,10 @@
         <v>601145.4570000001</v>
       </c>
       <c r="K40" s="1">
-        <v>417555.8259</v>
+        <v>417752.2153</v>
       </c>
       <c r="L40" s="1">
-        <v>12.7235</v>
+        <v>12.7294</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4264</v>
@@ -16405,10 +16408,10 @@
         <v>618619.7838</v>
       </c>
       <c r="K41" s="1">
-        <v>411893.0788</v>
+        <v>412112.0799</v>
       </c>
       <c r="L41" s="1">
-        <v>12.6858</v>
+        <v>12.6925</v>
       </c>
       <c r="M41" s="1">
         <v>0.75</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>17.107</v>
@@ -16458,10 +16461,10 @@
         <v>672978.2033000001</v>
       </c>
       <c r="K42" s="1">
-        <v>422332.5253</v>
+        <v>422551.5264</v>
       </c>
       <c r="L42" s="1">
-        <v>12.7581</v>
+        <v>12.7647</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.8894</v>
@@ -16511,10 +16514,10 @@
         <v>675843.4677</v>
       </c>
       <c r="K43" s="1">
-        <v>417971.6587</v>
+        <v>418208.0867</v>
       </c>
       <c r="L43" s="1">
-        <v>12.7241</v>
+        <v>12.7313</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.4004</v>
@@ -16564,10 +16567,10 @@
         <v>698535.0386</v>
       </c>
       <c r="K44" s="1">
-        <v>443621.1384</v>
+        <v>443857.5664</v>
       </c>
       <c r="L44" s="1">
-        <v>12.9093</v>
+        <v>12.9162</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3877</v>
@@ -16617,10 +16620,10 @@
         <v>671471.1299000001</v>
       </c>
       <c r="K45" s="1">
-        <v>479221.7333</v>
+        <v>479458.1613</v>
       </c>
       <c r="L45" s="1">
-        <v>13.1183</v>
+        <v>13.1248</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6367</v>
@@ -16670,10 +16673,10 @@
         <v>651139.428</v>
       </c>
       <c r="K46" s="1">
-        <v>535336.2987</v>
+        <v>535572.7267</v>
       </c>
       <c r="L46" s="1">
-        <v>13.3267</v>
+        <v>13.3326</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.0061</v>
@@ -16723,10 +16726,10 @@
         <v>590073.6369</v>
       </c>
       <c r="K47" s="1">
-        <v>584895.161</v>
+        <v>585131.589</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4306</v>
+        <v>13.4361</v>
       </c>
       <c r="M47" s="1">
         <v>0.5</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.835</v>
@@ -16776,10 +16779,10 @@
         <v>657764.5205</v>
       </c>
       <c r="K48" s="1">
-        <v>619694.5603</v>
+        <v>619930.9882</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4076</v>
+        <v>13.4127</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>14.4216</v>
@@ -16829,10 +16832,10 @@
         <v>695957.8488</v>
       </c>
       <c r="K49" s="1">
-        <v>649291.7442</v>
+        <v>649528.1721</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4277</v>
+        <v>13.4326</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2404</v>
@@ -16882,10 +16885,10 @@
         <v>648977.6664</v>
       </c>
       <c r="K50" s="1">
-        <v>648984.8628999999</v>
+        <v>649222.5162</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4273</v>
+        <v>13.4322</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.382</v>
@@ -16935,10 +16938,10 @@
         <v>633578.1516</v>
       </c>
       <c r="K51" s="1">
-        <v>669290.5188</v>
+        <v>669528.1721</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4223</v>
+        <v>13.4271</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.9583</v>
@@ -16988,10 +16991,10 @@
         <v>621452.4163</v>
       </c>
       <c r="K52" s="1">
-        <v>696690.5236</v>
+        <v>696928.177</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3793</v>
+        <v>13.3838</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2036</v>
@@ -17041,10 +17044,10 @@
         <v>644364.0566</v>
       </c>
       <c r="K53" s="1">
-        <v>706690.5236</v>
+        <v>706928.177</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3572</v>
+        <v>13.3617</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.9136</v>
@@ -17094,10 +17097,10 @@
         <v>711439.8949</v>
       </c>
       <c r="K54" s="1">
-        <v>716690.5236</v>
+        <v>716928.177</v>
       </c>
       <c r="L54" s="1">
-        <v>13.3401</v>
+        <v>13.3445</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.4338</v>
@@ -17147,10 +17150,10 @@
         <v>750377.6113</v>
       </c>
       <c r="K55" s="1">
-        <v>745737.0177</v>
+        <v>745974.671</v>
       </c>
       <c r="L55" s="1">
-        <v>13.324</v>
+        <v>13.3282</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.9657</v>
@@ -17200,10 +17203,10 @@
         <v>733847.2752</v>
       </c>
       <c r="K56" s="1">
-        <v>755737.0177</v>
+        <v>755974.671</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3258</v>
+        <v>13.33</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3568</v>
@@ -17253,10 +17256,10 @@
         <v>781554.9552</v>
       </c>
       <c r="K57" s="1">
-        <v>765737.0177</v>
+        <v>765974.671</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3213</v>
+        <v>13.3254</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2487</v>
@@ -17306,10 +17309,10 @@
         <v>785047.3776</v>
       </c>
       <c r="K58" s="1">
-        <v>791049.3691</v>
+        <v>791287.0224</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3233</v>
+        <v>13.3273</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3991</v>
@@ -17359,10 +17362,10 @@
         <v>804032.4735</v>
       </c>
       <c r="K59" s="1">
-        <v>801049.3691</v>
+        <v>801287.0224</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3227</v>
+        <v>13.3266</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.5985</v>
@@ -17412,10 +17415,10 @@
         <v>847751.6054</v>
       </c>
       <c r="K60" s="1">
-        <v>811049.3691</v>
+        <v>811287.0224</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3239</v>
+        <v>13.3279</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.6955</v>
@@ -17465,10 +17468,10 @@
         <v>863742.4447</v>
       </c>
       <c r="K61" s="1">
-        <v>842694.9865</v>
+        <v>842932.6399</v>
       </c>
       <c r="L61" s="1">
-        <v>13.335</v>
+        <v>13.3388</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3398</v>
@@ -17518,10 +17521,10 @@
         <v>851009.9359</v>
       </c>
       <c r="K62" s="1">
-        <v>852694.9865</v>
+        <v>852932.6399</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3395</v>
+        <v>13.3432</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.4347</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9073</v>
+        <v>12.9196</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0044</v>
+        <v>13.0149</v>
       </c>
       <c r="F3" s="1">
-        <v>13.129</v>
+        <v>13.1363</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3395</v>
+        <v>13.3432</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>270191.7818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.991</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4329</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2486</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0772</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9977</v>
       </c>
     </row>
   </sheetData>
